--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationFiO2.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationFiO2.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T19:04:28+00:00</t>
+    <t>2024-12-04T09:25:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationFiO2.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationFiO2.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-04T09:25:10+00:00</t>
+    <t>2024-12-04T09:36:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationFiO2.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationFiO2.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-04T09:36:59+00:00</t>
+    <t>2024-12-05T09:05:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationFiO2.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationFiO2.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-05T09:05:38+00:00</t>
+    <t>2024-12-05T09:18:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationFiO2.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationFiO2.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-05T09:18:22+00:00</t>
+    <t>2024-12-06T13:23:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationFiO2.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationFiO2.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-06T13:23:03+00:00</t>
+    <t>2024-12-10T06:48:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationFiO2.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationFiO2.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T06:48:38+00:00</t>
+    <t>2024-12-10T09:14:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
